--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrremat\OneDrive - OsloMet\Dokumenter\statistikk\Studentsvar\malfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="8_{C41BFC7E-91D4-48D7-87E9-01433D7C7908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C9A925-069A-44DF-95CD-B5EC0488D551}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Variabel</t>
   </si>
@@ -79,33 +79,6 @@
     <t>Var du aktiv i en organisasjon, forening eller lag under studietiden?</t>
   </si>
   <si>
-    <t>Hva slags organisasjon, forening eller lag var du aktiv i? [Idrettslag]</t>
-  </si>
-  <si>
-    <t>Hva slags organisasjon, forening eller lag var du aktiv i? [Studentforening]</t>
-  </si>
-  <si>
-    <t>Hva slags organisasjon, forening eller lag var du aktiv i? [Ideell organisasjon / interesseorganisasjon ]</t>
-  </si>
-  <si>
-    <t>Hva slags organisasjon, forening eller lag var du aktiv i? [Politisk parti]</t>
-  </si>
-  <si>
-    <t>Hadde du noen av de følgende vervene mens du var student? [Klassetillitsvalgt]</t>
-  </si>
-  <si>
-    <t>Hadde du noen av de følgende vervene mens du var student? [Styremedlem eller leder i studentforening]</t>
-  </si>
-  <si>
-    <t>Hadde du noen av de følgende vervene mens du var student? [Studentrepresentant i styre, råd eller utvalg ved OsloMet (tidligere HiOA)]</t>
-  </si>
-  <si>
-    <t>Hadde du noen av de følgende vervene mens du var student? [Medlem i studentparlamentet]</t>
-  </si>
-  <si>
-    <t>Hadde du noen av de følgende vervene mens du var student? [Nei, ingen av disse vervene]</t>
-  </si>
-  <si>
     <t>Legger arbeidsgiveren din tilrette for at du kan ta studiepoenggivende videreutdanning dersom du ønsker det?</t>
   </si>
   <si>
@@ -139,33 +112,6 @@
     <t>aktiv_organisasjon</t>
   </si>
   <si>
-    <t>aktiv_idrettslag</t>
-  </si>
-  <si>
-    <t>aktiv_studentforening</t>
-  </si>
-  <si>
-    <t>aktiv_ideell</t>
-  </si>
-  <si>
-    <t>aktiv_politisk</t>
-  </si>
-  <si>
-    <t>verv_klassetillitsvalgt</t>
-  </si>
-  <si>
-    <t>verv_studentforening</t>
-  </si>
-  <si>
-    <t>verv_studentrepresentant</t>
-  </si>
-  <si>
-    <t>verv_studentparlamentet</t>
-  </si>
-  <si>
-    <t>verv_ingen</t>
-  </si>
-  <si>
     <t>arbeidsgiver_tilrettelegger_videreutdanning</t>
   </si>
   <si>
@@ -368,33 +314,6 @@
   </si>
   <si>
     <t>Aktiv i organisasjon</t>
-  </si>
-  <si>
-    <t>Aktiv i idrettslag</t>
-  </si>
-  <si>
-    <t>Aktiv i studentforening</t>
-  </si>
-  <si>
-    <t>Verv, klassetillitsvalgt</t>
-  </si>
-  <si>
-    <t>Verv, studentforening</t>
-  </si>
-  <si>
-    <t>Verv, studentrepresentant</t>
-  </si>
-  <si>
-    <t>Verv, studentparlamentet</t>
-  </si>
-  <si>
-    <t>Verv, ingen</t>
-  </si>
-  <si>
-    <t>Aktiv i ideell organisasjon</t>
-  </si>
-  <si>
-    <t>Aktiv i politisk organisasjon</t>
   </si>
   <si>
     <t>Arbeidsgiver tilrettelegger VU</t>
@@ -649,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E38" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E29" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
@@ -959,23 +878,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="132" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -983,537 +902,411 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1538,229 +1331,229 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>81</v>
       </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrremat\OneDrive - OsloMet\Dokumenter\statistikk\Studentsvar\malfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBB2C91-97D2-4FFF-A03D-23D385E98202}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>dager_til_jobb</t>
   </si>
   <si>
-    <t xml:space="preserve">Hvor lang tid tok det fra du fullførte masterutdanningen til du fikk tilbud om relevant jobb? </t>
-  </si>
-  <si>
     <t>Dager til jobb</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>Pleier arbeidsgiveren din å finansiere videreutdanning?</t>
+  </si>
+  <si>
+    <t>Hvor lang tid tok det fra du fullførte utdanningen til du fikk tilbud om relevant jobb?</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +908,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
@@ -933,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
@@ -947,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -989,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>44</v>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -1017,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -1031,7 +1031,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>45</v>
@@ -1067,30 +1067,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,10 +1101,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,10 +1157,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,10 +1241,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,41 +1255,41 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1303,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>32</v>
@@ -1339,82 +1339,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,112 +1438,112 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBB2C91-97D2-4FFF-A03D-23D385E98202}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E58A63-9B4D-4E29-A941-10B7F2747227}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>Variabel</t>
   </si>
@@ -362,6 +362,15 @@
   </si>
   <si>
     <t>Hvor lang tid tok det fra du fullførte utdanningen til du fikk tilbud om relevant jobb?</t>
+  </si>
+  <si>
+    <t>Brutto årslønn</t>
+  </si>
+  <si>
+    <t>brutto_arslonn_vasket</t>
+  </si>
+  <si>
+    <t>Vi har tatt bort svar som er under 300 000 og over 1 000 000 kr, og gjennomsnittet inkluderer bare de som oppgir å arbeide med det de er utdannet til.</t>
   </si>
 </sst>
 </file>
@@ -568,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E29" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E30" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,9 +1318,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D1:D1048576" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D1:D29 D31:D1048576" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
       <formula1>32</formula1>
     </dataValidation>
   </dataValidations>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E58A63-9B4D-4E29-A941-10B7F2747227}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805498DE-AC4B-4DF5-8AAF-7361AE540EC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Variabel</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Vi har tatt bort svar som er under 300 000 og over 1 000 000 kr, og gjennomsnittet inkluderer bare de som oppgir å arbeide med det de er utdannet til.</t>
+  </si>
+  <si>
+    <t>Andel heltidsstilling</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -423,6 +426,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -890,7 +896,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E30" sqref="A30:E30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,8 +1025,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
+      <c r="A9" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805498DE-AC4B-4DF5-8AAF-7361AE540EC3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AAE07B-5C0C-4FD3-8BEC-E420C5FCA536}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>Variabel</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>Andel heltidsstilling</t>
+  </si>
+  <si>
+    <t>Andel deltidsstilling</t>
+  </si>
+  <si>
+    <t>deltidsstilling</t>
+  </si>
+  <si>
+    <t>Andel deltid</t>
   </si>
 </sst>
 </file>
@@ -583,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E30" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E31" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
@@ -893,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,100 +1035,100 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,24 +1139,24 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,24 +1167,24 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,24 +1195,24 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,24 +1223,24 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,55 +1251,52 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>106</v>
@@ -1298,52 +1304,69 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D1:D29 D31:D1048576" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D32:D1048576 D1:D30" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
       <formula1>32</formula1>
     </dataValidation>
   </dataValidations>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AAE07B-5C0C-4FD3-8BEC-E420C5FCA536}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CA93A9-1347-4761-BB40-35045ABA22E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -905,7 +905,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CA93A9-1347-4761-BB40-35045ABA22E1}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED69DA7-05C3-4120-A305-982339B9F5C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Variabel</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Tenk deg at det hadde vært mulig å gjøre om igjen det valget du foretok da du begynte på studiet. Hvor sannsynlig er det at du da ville ha valgt ... [samme lærested?]</t>
   </si>
   <si>
-    <t>Var du aktiv i en organisasjon, forening eller lag under studietiden?</t>
-  </si>
-  <si>
     <t>Legger arbeidsgiveren din tilrette for at du kan ta studiepoenggivende videreutdanning dersom du ønsker det?</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>valgt_samme_utdanning</t>
   </si>
   <si>
-    <t>aktiv_organisasjon</t>
-  </si>
-  <si>
     <t>arbeidsgiver_tilrettelegger_videreutdanning</t>
   </si>
   <si>
@@ -175,12 +169,6 @@
     <t>Flere arbeidsgivere</t>
   </si>
   <si>
-    <t>dager_til_jobb</t>
-  </si>
-  <si>
-    <t>Dager til jobb</t>
-  </si>
-  <si>
     <t>Hadde tilbud om jobb før fullført utdanning eller turnus</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>Valgt samme institusjon (ford.)</t>
   </si>
   <si>
-    <t>Aktiv i organisasjon</t>
-  </si>
-  <si>
     <t>Arbeidsgiver tilrettelegger VU</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>Pleier arbeidsgiveren din å finansiere videreutdanning?</t>
   </si>
   <si>
-    <t>Hvor lang tid tok det fra du fullførte utdanningen til du fikk tilbud om relevant jobb?</t>
-  </si>
-  <si>
     <t>Brutto årslønn</t>
   </si>
   <si>
@@ -383,6 +365,15 @@
   </si>
   <si>
     <t>Andel deltid</t>
+  </si>
+  <si>
+    <t>lang_tid_til_relevant_arbeid</t>
+  </si>
+  <si>
+    <t>Lang tid til relevant arbeid</t>
+  </si>
+  <si>
+    <t>Tok det mer enn 6 måneder å få relevant arbeid?</t>
   </si>
 </sst>
 </file>
@@ -592,8 +583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E31" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E30" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
@@ -902,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,27 +959,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,83 +1001,83 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,41 +1085,41 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,13 +1155,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,13 +1169,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,13 +1183,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,13 +1197,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,13 +1211,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,13 +1239,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,13 +1253,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,97 +1267,83 @@
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D32:D1048576 D1:D30" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D31:D1048576 D1:D29" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
       <formula1>32</formula1>
     </dataValidation>
   </dataValidations>
@@ -1394,221 +1371,221 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED69DA7-05C3-4120-A305-982339B9F5C8}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB19AA1-12CF-4AAF-B7C4-485279118DE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>Variabel</t>
   </si>
@@ -61,21 +61,6 @@
     <t>Er du ansatt hos mer enn én arbeidsgiver?</t>
   </si>
   <si>
-    <t>Hvor enig er du i følgende utsagn? [Jeg er godt fornøyd med oppgaver og ansvar i min nåværende jobb.]</t>
-  </si>
-  <si>
-    <t>Hvor enig er du i følgende utsagn? [Utdanningen forberedte meg godt for oppgaver og ansvar i min nåværende jobb.]</t>
-  </si>
-  <si>
-    <t>Hvor enig er du i følgende utsagn? [Utdanningen ga meg kompetanse i å samarbeide med andre yrkesgrupper (tverrprofesjonelt samarbeid)]</t>
-  </si>
-  <si>
-    <t>Tenk deg at det hadde vært mulig å gjøre om igjen det valget du foretok da du begynte på studiet. Hvor sannsynlig er det at du da ville ha valgt ... [samme type utdanning?]</t>
-  </si>
-  <si>
-    <t>Tenk deg at det hadde vært mulig å gjøre om igjen det valget du foretok da du begynte på studiet. Hvor sannsynlig er det at du da ville ha valgt ... [samme lærested?]</t>
-  </si>
-  <si>
     <t>Legger arbeidsgiveren din tilrette for at du kan ta studiepoenggivende videreutdanning dersom du ønsker det?</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>mann</t>
   </si>
   <si>
-    <t>heltidsstilling</t>
-  </si>
-  <si>
     <t>Andel heltid</t>
   </si>
   <si>
@@ -355,9 +337,6 @@
     <t>Vi har tatt bort svar som er under 300 000 og over 1 000 000 kr, og gjennomsnittet inkluderer bare de som oppgir å arbeide med det de er utdannet til.</t>
   </si>
   <si>
-    <t>Andel heltidsstilling</t>
-  </si>
-  <si>
     <t>Andel deltidsstilling</t>
   </si>
   <si>
@@ -374,6 +353,24 @@
   </si>
   <si>
     <t>Tok det mer enn 6 måneder å få relevant arbeid?</t>
+  </si>
+  <si>
+    <t>Jeg er godt fornøyd med oppgaver og ansvar i min nåværende jobb.</t>
+  </si>
+  <si>
+    <t>Utdanningen forberedte meg godt for oppgaver og ansvar i min nåværende jobb.</t>
+  </si>
+  <si>
+    <t>Utdanningen ga meg kompetanse i å samarbeide med andre yrkesgrupper (tverrprofesjonelt samarbeid)</t>
+  </si>
+  <si>
+    <t>Hvor sannsynlig er det at du ville ha valgt samme type utdanning?</t>
+  </si>
+  <si>
+    <t>Hvor sannsynlig er det at du ville ha valgt samme lærested?</t>
+  </si>
+  <si>
+    <t>Andel av de som arbeider deltid og som ønsker full stilling.</t>
   </si>
 </sst>
 </file>
@@ -583,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E30" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E29" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
@@ -893,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,13 +928,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,13 +942,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,27 +956,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,13 +984,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,349 +998,338 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>106</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+      <c r="A13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>112</v>
+      <c r="A15" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D31:D1048576 D1:D29" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D30:D1048576 D1:D28" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
       <formula1>32</formula1>
     </dataValidation>
   </dataValidations>
@@ -1371,221 +1357,221 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB19AA1-12CF-4AAF-B7C4-485279118DE5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EACD020-95FE-4868-B991-1AF5DF1413D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>Variabel</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Jobber i Oslo</t>
   </si>
   <si>
-    <t>oslo</t>
-  </si>
-  <si>
     <t>Kjønn</t>
   </si>
   <si>
@@ -371,6 +368,15 @@
   </si>
   <si>
     <t>Andel av de som arbeider deltid og som ønsker full stilling.</t>
+  </si>
+  <si>
+    <t>Hvor er arbeidsstedet ditt?</t>
+  </si>
+  <si>
+    <t>oslo_viken_annet</t>
+  </si>
+  <si>
+    <t>Arbeidssted</t>
   </si>
 </sst>
 </file>
@@ -892,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,10 +937,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,24 +965,24 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,10 +993,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,69 +1007,69 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+      <c r="A8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="D8" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,178 +1080,178 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,75 +1262,75 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1357,82 +1363,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,138 +1446,138 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Kandidat_2022_vars_single.xlsx
+++ b/malfiler/Kandidat_2022_vars_single.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EACD020-95FE-4868-B991-1AF5DF1413D0}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7007EE59-7BEE-4B01-BE5B-F344E6F27813}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>Variabel</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Spørsmålstekst</t>
   </si>
   <si>
-    <t>Hva er din hovedaktivitet?  Velg den aktiviteten du bruker mest tid på. Se bort fra om du for tiden er sykemeldt eller i permisjon.</t>
-  </si>
-  <si>
     <t>På hvilket nivå studerer du nå?</t>
   </si>
   <si>
@@ -352,12 +349,6 @@
     <t>Tok det mer enn 6 måneder å få relevant arbeid?</t>
   </si>
   <si>
-    <t>Jeg er godt fornøyd med oppgaver og ansvar i min nåværende jobb.</t>
-  </si>
-  <si>
-    <t>Utdanningen forberedte meg godt for oppgaver og ansvar i min nåværende jobb.</t>
-  </si>
-  <si>
     <t>Utdanningen ga meg kompetanse i å samarbeide med andre yrkesgrupper (tverrprofesjonelt samarbeid)</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>Hvor sannsynlig er det at du ville ha valgt samme lærested?</t>
   </si>
   <si>
-    <t>Andel av de som arbeider deltid og som ønsker full stilling.</t>
-  </si>
-  <si>
     <t>Hvor er arbeidsstedet ditt?</t>
   </si>
   <si>
@@ -377,6 +365,27 @@
   </si>
   <si>
     <t>Arbeidssted</t>
+  </si>
+  <si>
+    <t>Hovedaktivitet 1–3 år etter fullført utdanning</t>
+  </si>
+  <si>
+    <t>Jeg er godt fornøyd med oppgaver og ansvar i min nåværende jobb</t>
+  </si>
+  <si>
+    <t>Før 2022 var svarene gitt med en firedelt skala, vi har derfor ikke tatt med sammenligning av resultater.</t>
+  </si>
+  <si>
+    <t>Utdanningen forberedte meg godt for oppgaver og ansvar i min nåværende jobb</t>
+  </si>
+  <si>
+    <t>I 2018 ble kandidatene spurt om de var ansatt i privat, statlig, kommunal eller frivillig sektor. Senere undersøkelser har hatt et alternativ for fylkeskommunal.</t>
+  </si>
+  <si>
+    <t>For 2018/2019 er Akershus, Buskerud og Østfold kodet til Viken.</t>
+  </si>
+  <si>
+    <t>Andel av de som arbeider deltid og som ønsker full stilling. I 2018 fikk ikke kandidatene oppfølgingsspørsmål om grunnen til redusert stilling, og vi har derfor ikke tatt med sammenligning av resultater.</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,14 +595,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
   <autoFilter ref="A1:E29" xr:uid="{C5C1CF88-7443-457B-AC77-A0840E9FD512}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B339D8CC-5E13-4DCA-BFD8-049948FD6AF9}" name="Svartype" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F9601F41-BCF3-4490-BF63-46C328B14068}" name="Arkfanetittel" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{5B159670-6FD4-410B-97CA-F479EBDF0EA5}" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{160CC1CB-F893-4D31-B90C-FCC9EC624563}" name="Spørsmålstekst" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{26B093AC-730D-4DC7-8FEB-A32629DB4F75}" name="Variabel" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B339D8CC-5E13-4DCA-BFD8-049948FD6AF9}" name="Svartype" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F9601F41-BCF3-4490-BF63-46C328B14068}" name="Arkfanetittel" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5B159670-6FD4-410B-97CA-F479EBDF0EA5}" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,7 +908,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,422 +929,462 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D30:D1048576 D1:D28" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" sqref="D1:D1048576" xr:uid="{90FF4CAA-BBBA-4B2B-A1DA-9F1A421D4E28}">
       <formula1>32</formula1>
     </dataValidation>
   </dataValidations>
@@ -1363,221 +1412,221 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
